--- a/data/processing/rooms.xlsx
+++ b/data/processing/rooms.xlsx
@@ -821,7 +821,7 @@
         <v>44562.41666666666</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
